--- a/medicine/Pharmacie/Mathieu-François_Geoffroy/Mathieu-François_Geoffroy.xlsx
+++ b/medicine/Pharmacie/Mathieu-François_Geoffroy/Mathieu-François_Geoffroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mathieu-Fran%C3%A7ois_Geoffroy</t>
+          <t>Mathieu-François_Geoffroy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mathieu-François Geoffroy , né à Paris le 20 mai 1644 et mort le 26 octobre 1708 à Paris, est un pharmacien français, ayant joué un rôle important dans la société des savants de son époque.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mathieu-Fran%C3%A7ois_Geoffroy</t>
+          <t>Mathieu-François_Geoffroy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une célèbre dynastie d'apothicaires parisiens, il est lui-même reçu maître apothicaire le 22 novembre 1666. À son officine (rue du Bourg-Tibourg), citée comme l’une des plus importantes de Paris par le Dr Martin Lister (1638-1712), il aura notamment pour clients réputés le duc de Chaulnes, Louvois, ou encore Mme la chancelière Le Tellier.
 Il organisa également chez lui la tenue des conférences de Jean-Dominique Cassini, du Père Sébastien, de Louis Joblot, de Joseph-Guichard Du Verney ou bien de Guillaume Homberg.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mathieu-Fran%C3%A7ois_Geoffroy</t>
+          <t>Mathieu-François_Geoffroy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baptiste Geoffroy,
 Étienne I Geoffroy (1586-1673), marié avec Marie Nicolas,
